--- a/02/3. 검색 알고리즘 찐막.xlsx
+++ b/02/3. 검색 알고리즘 찐막.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minseo/data_structure/02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D2931C-61BE-0646-856C-BA286DA55301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962DE755-5469-834B-ABA0-8514E3EDA236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="view" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
   <si>
     <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -984,6 +984,15 @@
   </si>
   <si>
     <t>컴공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+check = {}
+for _ in range(2):
+    study, gpa = input().split()
+    check[study] = gpa
+print(check)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,7 +1287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1390,9 +1399,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,6 +1439,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7256,24 +7268,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="20" spans="1:17">
       <c r="B20" s="4">
@@ -7476,22 +7488,22 @@
       <c r="M30" s="9"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
     </row>
     <row r="34" spans="1:14">
       <c r="C34" s="30">
@@ -7511,40 +7523,40 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
     </row>
     <row r="42" spans="1:14">
       <c r="B42" s="2" t="s">
@@ -7587,23 +7599,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
       <c r="P1" s="8"/>
     </row>
     <row r="3" spans="1:16">
@@ -7871,19 +7883,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="32" t="s">
@@ -7957,7 +7969,7 @@
       <c r="C10" s="3">
         <v>11</v>
       </c>
-      <c r="E10" s="38"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="2">
@@ -8078,7 +8090,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="37" t="s">
         <v>122</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -8218,8 +8230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20"/>
@@ -8228,17 +8240,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="33" t="s">
@@ -8300,11 +8312,13 @@
       <c r="C13" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="E13" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="34" t="s">
@@ -8313,11 +8327,11 @@
       <c r="C14" s="34">
         <v>3</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="34" t="s">
@@ -8326,64 +8340,65 @@
       <c r="C15" s="34">
         <v>3</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
     </row>
     <row r="17" spans="5:9">
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="5:9">
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
     </row>
     <row r="19" spans="5:9">
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
     </row>
     <row r="20" spans="5:9">
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
     </row>
     <row r="21" spans="5:9">
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
     </row>
     <row r="22" spans="5:9">
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E13:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8405,27 +8420,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
     </row>
     <row r="5" spans="1:19">
       <c r="K5" s="1" t="s">
@@ -8464,23 +8479,23 @@
   <dimension ref="B4:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B4" sqref="B4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="4" spans="2:10" ht="20">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8506,23 +8521,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="20">
       <c r="A3" s="17"/>
@@ -8544,14 +8559,14 @@
       <c r="F4" s="12">
         <v>4</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="27">
       <c r="A5" s="12">
@@ -8572,12 +8587,12 @@
       <c r="F5" s="13">
         <v>5</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
     </row>
     <row r="6" spans="1:15" ht="27">
       <c r="A6" s="12">
@@ -8598,12 +8613,12 @@
       <c r="F6" s="13">
         <v>10</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
     </row>
     <row r="7" spans="1:15" ht="27">
       <c r="A7" s="12">
@@ -8624,12 +8639,12 @@
       <c r="F7" s="13">
         <v>15</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="27">
       <c r="A8" s="12">
@@ -8650,12 +8665,12 @@
       <c r="F8" s="13">
         <v>20</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
     </row>
     <row r="9" spans="1:15" ht="27">
       <c r="A9" s="12">
@@ -8676,28 +8691,28 @@
       <c r="F9" s="13">
         <v>25</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
     </row>
     <row r="19" spans="1:16" ht="20">
       <c r="A19" s="17" t="s">
@@ -8721,15 +8736,15 @@
       <c r="F20" s="12">
         <v>4</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
     </row>
     <row r="21" spans="1:16" ht="27">
       <c r="A21" s="12">
@@ -8750,13 +8765,13 @@
       <c r="F21" s="13">
         <v>5</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
     </row>
     <row r="22" spans="1:16" ht="27">
       <c r="A22" s="12">
@@ -8775,13 +8790,13 @@
         <v>9</v>
       </c>
       <c r="F22" s="13"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
     </row>
     <row r="23" spans="1:16" ht="27">
       <c r="A23" s="12">
@@ -8798,67 +8813,67 @@
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1">
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1">
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1">
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1">
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
     </row>
     <row r="28" spans="1:16" ht="17" customHeight="1">
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
     </row>
     <row r="29" spans="1:16" ht="17" customHeight="1">
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8887,27 +8902,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
@@ -9109,65 +9124,65 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
     </row>
     <row r="14" spans="1:19">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
     </row>
     <row r="17" spans="2:19">
       <c r="B17" s="1" t="s">
@@ -9179,14 +9194,14 @@
       <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="1" t="s">
@@ -9198,24 +9213,24 @@
       <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
     </row>
     <row r="20" spans="2:19">
       <c r="B20" s="7" t="s">
@@ -9242,14 +9257,14 @@
       <c r="I20" s="6">
         <v>1</v>
       </c>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
     </row>
     <row r="21" spans="2:19">
       <c r="B21" s="7">
@@ -9276,58 +9291,58 @@
       <c r="I21" s="6">
         <v>2</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
     </row>
     <row r="22" spans="2:19">
       <c r="B22" s="7"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19">
       <c r="B23" s="7"/>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="6">
         <v>8</v>
       </c>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
     </row>
     <row r="24" spans="2:19">
       <c r="B24" s="7"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
     </row>
     <row r="25" spans="2:19">
       <c r="B25" s="7" t="s">
@@ -9354,14 +9369,14 @@
       <c r="I25" s="6">
         <v>3</v>
       </c>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
     </row>
     <row r="26" spans="2:19">
       <c r="B26" s="7">
@@ -9388,58 +9403,58 @@
       <c r="I26" s="6">
         <v>2</v>
       </c>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
     </row>
     <row r="27" spans="2:19">
       <c r="B27" s="7"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
     </row>
     <row r="28" spans="2:19">
       <c r="B28" s="7"/>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="6">
         <v>18</v>
       </c>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
     </row>
     <row r="29" spans="2:19">
       <c r="B29" s="7"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
     </row>
     <row r="30" spans="2:19">
       <c r="B30" s="7" t="s">
@@ -9466,14 +9481,14 @@
       <c r="I30" s="6">
         <v>2</v>
       </c>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
     </row>
     <row r="31" spans="2:19">
       <c r="B31" s="7">
@@ -9500,58 +9515,58 @@
       <c r="I31" s="6">
         <v>1</v>
       </c>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
     </row>
     <row r="32" spans="2:19">
       <c r="B32" s="7"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" s="7"/>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G33" s="6">
         <v>12</v>
       </c>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
     </row>
     <row r="34" spans="2:19">
       <c r="B34" s="7"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
     </row>
     <row r="35" spans="2:19">
       <c r="B35" s="7" t="s">
@@ -9578,14 +9593,14 @@
       <c r="I35" s="6">
         <v>2</v>
       </c>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
     </row>
     <row r="36" spans="2:19">
       <c r="B36" s="7">
@@ -9612,75 +9627,75 @@
       <c r="I36" s="6">
         <v>3</v>
       </c>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
     </row>
     <row r="37" spans="2:19">
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
     </row>
     <row r="38" spans="2:19">
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="6">
         <v>14</v>
       </c>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
     </row>
     <row r="39" spans="2:19">
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
     </row>
     <row r="40" spans="2:19">
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
     </row>
     <row r="41" spans="2:19">
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9712,25 +9727,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="22" t="s">
@@ -10088,17 +10103,17 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10125,22 +10140,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -10169,14 +10184,14 @@
       <c r="G4" s="3">
         <v>6</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
@@ -10200,12 +10215,12 @@
       <c r="G5" s="2">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
@@ -10223,31 +10238,31 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3">
@@ -10271,12 +10286,12 @@
       <c r="G9" s="3">
         <v>6</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
@@ -10300,12 +10315,12 @@
       <c r="G10" s="2">
         <v>8</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
@@ -10329,101 +10344,101 @@
       <c r="G11" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
     </row>
     <row r="17" spans="9:14">
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="9:14">
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
     </row>
     <row r="19" spans="9:14">
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
     </row>
     <row r="20" spans="9:14">
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
     </row>
     <row r="21" spans="9:14">
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10450,29 +10465,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
@@ -10596,10 +10611,10 @@
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="41" t="s">
+      <c r="M14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="41"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="16" spans="1:21">
       <c r="B16" s="14">
@@ -10888,23 +10903,23 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:15" ht="20">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="7" spans="1:15" ht="20">
       <c r="B7" s="17" t="s">
@@ -11014,28 +11029,28 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="51" t="s">
+      <c r="K18" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
     </row>
     <row r="19" spans="2:14" ht="23">
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
     </row>
     <row r="20" spans="2:14" ht="23">
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
     </row>
     <row r="21" spans="2:14" ht="23">
       <c r="B21" s="14">
@@ -11061,10 +11076,10 @@
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" spans="2:14" ht="23">
       <c r="B22" s="15">
@@ -11090,10 +11105,10 @@
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
     </row>
     <row r="23" spans="2:14" ht="23">
       <c r="B23" s="25"/>
@@ -11105,10 +11120,10 @@
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
     </row>
     <row r="24" spans="2:14" ht="23">
       <c r="B24" s="25" t="s">
@@ -11122,10 +11137,10 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
     </row>
     <row r="25" spans="2:14" ht="23">
       <c r="B25" s="26" t="s">
@@ -11139,10 +11154,10 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="2:14" ht="23">
       <c r="B26" s="25"/>
@@ -11154,10 +11169,10 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
     </row>
     <row r="27" spans="2:14" ht="23">
       <c r="B27" s="25"/>
@@ -11169,10 +11184,10 @@
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
     </row>
     <row r="28" spans="2:14" ht="23">
       <c r="B28" s="14">
@@ -11198,10 +11213,10 @@
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
     </row>
     <row r="29" spans="2:14" ht="23">
       <c r="B29" s="15">
@@ -11227,10 +11242,10 @@
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
     </row>
     <row r="30" spans="2:14" ht="23">
       <c r="B30" s="25"/>
@@ -11242,10 +11257,10 @@
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
     </row>
     <row r="31" spans="2:14" ht="23">
       <c r="B31" s="25"/>
@@ -11257,10 +11272,10 @@
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
     </row>
     <row r="32" spans="2:14" ht="23">
       <c r="B32" s="25"/>
@@ -11272,16 +11287,16 @@
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
     </row>
     <row r="33" spans="11:14" ht="20" customHeight="1">
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11299,37 +11314,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="3" spans="1:9" ht="20">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="6" spans="1:9" ht="20">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/02/3. 검색 알고리즘 찐막.xlsx
+++ b/02/3. 검색 알고리즘 찐막.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minseo/data_structure/02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962DE755-5469-834B-ABA0-8514E3EDA236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AB383D-AC38-9F42-A71D-B85796FEF04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="view" sheetId="8" r:id="rId1"/>
@@ -1408,44 +1408,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7587,7 +7587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -7873,7 +7873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -8231,7 +8231,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E13" sqref="E13:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20"/>
@@ -8312,13 +8312,13 @@
       <c r="C13" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="34" t="s">
@@ -8327,11 +8327,11 @@
       <c r="C14" s="34">
         <v>3</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="34" t="s">
@@ -8340,60 +8340,60 @@
       <c r="C15" s="34">
         <v>3</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
     </row>
     <row r="17" spans="5:9">
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="5:9">
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
     </row>
     <row r="19" spans="5:9">
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="5:9">
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="21" spans="5:9">
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="5:9">
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8485,17 +8485,17 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="4" spans="2:10" ht="20">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8511,7 +8511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J20" sqref="J20:P29"/>
     </sheetView>
   </sheetViews>
@@ -8559,14 +8559,14 @@
       <c r="F4" s="12">
         <v>4</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:15" ht="27">
       <c r="A5" s="12">
@@ -8587,12 +8587,12 @@
       <c r="F5" s="13">
         <v>5</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
     </row>
     <row r="6" spans="1:15" ht="27">
       <c r="A6" s="12">
@@ -8613,12 +8613,12 @@
       <c r="F6" s="13">
         <v>10</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
     </row>
     <row r="7" spans="1:15" ht="27">
       <c r="A7" s="12">
@@ -8639,12 +8639,12 @@
       <c r="F7" s="13">
         <v>15</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="27">
       <c r="A8" s="12">
@@ -8665,12 +8665,12 @@
       <c r="F8" s="13">
         <v>20</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
     </row>
     <row r="9" spans="1:15" ht="27">
       <c r="A9" s="12">
@@ -8691,28 +8691,28 @@
       <c r="F9" s="13">
         <v>25</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="20">
       <c r="A19" s="17" t="s">
@@ -8736,15 +8736,15 @@
       <c r="F20" s="12">
         <v>4</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
     </row>
     <row r="21" spans="1:16" ht="27">
       <c r="A21" s="12">
@@ -8765,13 +8765,13 @@
       <c r="F21" s="13">
         <v>5</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
     </row>
     <row r="22" spans="1:16" ht="27">
       <c r="A22" s="12">
@@ -8790,13 +8790,13 @@
         <v>9</v>
       </c>
       <c r="F22" s="13"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
     </row>
     <row r="23" spans="1:16" ht="27">
       <c r="A23" s="12">
@@ -8813,67 +8813,67 @@
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
     </row>
     <row r="24" spans="1:16" ht="19" customHeight="1">
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
     </row>
     <row r="25" spans="1:16" ht="19" customHeight="1">
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
     </row>
     <row r="26" spans="1:16" ht="19" customHeight="1">
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
     </row>
     <row r="27" spans="1:16" ht="19" customHeight="1">
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
     </row>
     <row r="28" spans="1:16" ht="17" customHeight="1">
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
     </row>
     <row r="29" spans="1:16" ht="17" customHeight="1">
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8892,7 +8892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -9124,65 +9124,65 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="47" t="s">
+      <c r="L12" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
     </row>
     <row r="14" spans="1:19">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
     </row>
     <row r="17" spans="2:19">
       <c r="B17" s="1" t="s">
@@ -9194,14 +9194,14 @@
       <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="1" t="s">
@@ -9213,24 +9213,24 @@
       <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
     </row>
     <row r="20" spans="2:19">
       <c r="B20" s="7" t="s">
@@ -9257,14 +9257,14 @@
       <c r="I20" s="6">
         <v>1</v>
       </c>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
     </row>
     <row r="21" spans="2:19">
       <c r="B21" s="7">
@@ -9291,58 +9291,58 @@
       <c r="I21" s="6">
         <v>2</v>
       </c>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
     </row>
     <row r="22" spans="2:19">
       <c r="B22" s="7"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
     </row>
     <row r="23" spans="2:19">
       <c r="B23" s="7"/>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="6">
         <v>8</v>
       </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
     </row>
     <row r="24" spans="2:19">
       <c r="B24" s="7"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
     </row>
     <row r="25" spans="2:19">
       <c r="B25" s="7" t="s">
@@ -9369,14 +9369,14 @@
       <c r="I25" s="6">
         <v>3</v>
       </c>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
     </row>
     <row r="26" spans="2:19">
       <c r="B26" s="7">
@@ -9403,58 +9403,58 @@
       <c r="I26" s="6">
         <v>2</v>
       </c>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
     </row>
     <row r="27" spans="2:19">
       <c r="B27" s="7"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
     </row>
     <row r="28" spans="2:19">
       <c r="B28" s="7"/>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="6">
         <v>18</v>
       </c>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
     </row>
     <row r="29" spans="2:19">
       <c r="B29" s="7"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
     </row>
     <row r="30" spans="2:19">
       <c r="B30" s="7" t="s">
@@ -9481,14 +9481,14 @@
       <c r="I30" s="6">
         <v>2</v>
       </c>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
     </row>
     <row r="31" spans="2:19">
       <c r="B31" s="7">
@@ -9515,58 +9515,58 @@
       <c r="I31" s="6">
         <v>1</v>
       </c>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
     </row>
     <row r="32" spans="2:19">
       <c r="B32" s="7"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" s="7"/>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G33" s="6">
         <v>12</v>
       </c>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
     </row>
     <row r="34" spans="2:19">
       <c r="B34" s="7"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
     </row>
     <row r="35" spans="2:19">
       <c r="B35" s="7" t="s">
@@ -9593,14 +9593,14 @@
       <c r="I35" s="6">
         <v>2</v>
       </c>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
     </row>
     <row r="36" spans="2:19">
       <c r="B36" s="7">
@@ -9627,75 +9627,75 @@
       <c r="I36" s="6">
         <v>3</v>
       </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
     </row>
     <row r="37" spans="2:19">
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
     </row>
     <row r="38" spans="2:19">
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="6">
         <v>14</v>
       </c>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
     </row>
     <row r="39" spans="2:19">
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
     </row>
     <row r="40" spans="2:19">
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
     </row>
     <row r="41" spans="2:19">
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10097,23 +10097,23 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10131,7 +10131,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20"/>
@@ -10184,7 +10184,7 @@
       <c r="G4" s="3">
         <v>6</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="47" t="s">
         <v>120</v>
       </c>
       <c r="J4" s="48"/>
@@ -10455,7 +10455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -10611,10 +10611,10 @@
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="40" t="s">
+      <c r="M14" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="40"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="16" spans="1:21">
       <c r="B16" s="14">
@@ -11029,28 +11029,28 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="50" t="s">
+      <c r="K18" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
     </row>
     <row r="19" spans="2:14" ht="23">
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
     </row>
     <row r="20" spans="2:14" ht="23">
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
     </row>
     <row r="21" spans="2:14" ht="23">
       <c r="B21" s="14">
@@ -11076,10 +11076,10 @@
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
     </row>
     <row r="22" spans="2:14" ht="23">
       <c r="B22" s="15">
@@ -11105,10 +11105,10 @@
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
     </row>
     <row r="23" spans="2:14" ht="23">
       <c r="B23" s="25"/>
@@ -11120,10 +11120,10 @@
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
     </row>
     <row r="24" spans="2:14" ht="23">
       <c r="B24" s="25" t="s">
@@ -11137,10 +11137,10 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
     </row>
     <row r="25" spans="2:14" ht="23">
       <c r="B25" s="26" t="s">
@@ -11154,10 +11154,10 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="2:14" ht="23">
       <c r="B26" s="25"/>
@@ -11169,10 +11169,10 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="2:14" ht="23">
       <c r="B27" s="25"/>
@@ -11184,10 +11184,10 @@
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
     </row>
     <row r="28" spans="2:14" ht="23">
       <c r="B28" s="14">
@@ -11213,10 +11213,10 @@
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
     </row>
     <row r="29" spans="2:14" ht="23">
       <c r="B29" s="15">
@@ -11242,10 +11242,10 @@
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
     </row>
     <row r="30" spans="2:14" ht="23">
       <c r="B30" s="25"/>
@@ -11257,10 +11257,10 @@
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
     </row>
     <row r="31" spans="2:14" ht="23">
       <c r="B31" s="25"/>
@@ -11272,10 +11272,10 @@
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
     </row>
     <row r="32" spans="2:14" ht="23">
       <c r="B32" s="25"/>
@@ -11287,16 +11287,16 @@
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
     </row>
     <row r="33" spans="11:14" ht="20" customHeight="1">
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11314,37 +11314,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="3" spans="1:9" ht="20">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="20">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
